--- a/data/trans_bre/P54_A_7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_7_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5,52</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>175,91%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -642,22 +642,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,81; 11,03</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 5,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,32; 901,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-29,01%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,85%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-5,02; 2,46</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 2,96</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-75,1; 121,33</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,31; 452,85</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,88</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>99,07%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,77%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,32; 7,9</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 2,61</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 362,98</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,97; 821,82</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,93%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-1,48; 6,48</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,69</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 2,77</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-18,58; 172,4</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,62; 626,14</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>16,17%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,49%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-3,99; 6,62</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 3,89</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-51,94; 148,46</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,7; 1006,24</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,74%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-9,4; 0,29</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,01</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-6,57; -0,13</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-78,77; 14,31</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 28,37</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,1%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-0,48; 3,24</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,68</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 1,51</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-8,06; 74,16</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,68; 137,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_7_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,34 +611,22 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,52</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>175,91%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>5.52426263865504</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.377254223886276</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>1.759092926578114</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -637,204 +634,118 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,81; 11,03</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 5,69</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-9,32; 901,15</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.8144353107217429</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="n">
+        <v>0.8693495128696435</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.09320271000205563</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.02819314046468</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="n">
+        <v>5.713715079007107</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>9.011455403438347</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,26</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-29,01%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>14,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,02; 2,46</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,47; 2,96</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-75,1; 121,33</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-82,31; 452,85</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.257422379656409</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2167918938866593</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.2901297420362874</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>0.1084617700143448</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,88</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>99,07%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>95,77%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.015839139323878</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="n">
+        <v>-2.574034167162215</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.7510061944189149</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.8258642810921888</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 7,9</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 2,61</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,46; 362,98</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-65,97; 821,82</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.455921646343618</v>
+      </c>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="n">
+        <v>2.859894132035554</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.213306816119079</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>4.417782515782227</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +753,151 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>41,92%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>65,93%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>3.884338390586881</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.9839743169248467</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.9906517769552805</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>1.059746443471729</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 6,48</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,69</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 2,77</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-18,58; 172,4</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-59,62; 626,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.3183112411566185</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>-0.6823266777649454</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.02463167215586513</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.6301103352478183</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.896294316472062</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>2.817202635992323</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>3.629811832818701</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>8.886130487780379</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>16,17%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>111,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,99; 6,62</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 3,89</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-51,94; 148,46</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-55,7; 1006,24</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.467557758410028</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3106957862622631</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.7842412278728887</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.4191531422508939</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.5949536843913475</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-4,04</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,72</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-49,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-67,74%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.480062478667297</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.099539890922766</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1857786800906817</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.6182938964700464</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-9,4; 0,29</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,01</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,57; -0,13</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-78,77; 14,31</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 28,37</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.479604415148213</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.533352315516554</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.639903252978159</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.723979241969362</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>6.165712258583648</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +905,229 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>27,4%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>32,1%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.05501455221564</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1.458737522440335</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.161686584204936</v>
+      </c>
+      <c r="G16" s="6" t="inlineStr"/>
+      <c r="H16" s="6" t="n">
+        <v>1.253028998135883</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 3,24</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,68</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 1,51</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-8,06; 74,16</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-24,68; 137,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-3.992466191580569</v>
+      </c>
+      <c r="D17" s="5" t="inlineStr"/>
+      <c r="E17" s="5" t="n">
+        <v>-0.5351064949383324</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.5193932700592432</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="n">
+        <v>-0.5281991507454051</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>6.618533290653751</v>
+      </c>
+      <c r="D18" s="5" t="inlineStr"/>
+      <c r="E18" s="5" t="n">
+        <v>4.068655194853775</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>1.484586944529025</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="n">
+        <v>10.34004606794331</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-4.042212899319162</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.7841419145567327</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-2.767516952447772</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.4900350080492455</v>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.6723284315725676</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-9.404137244544151</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-6.65752954641054</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.7876986479248501</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0.2929643879011798</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>2.889040957939281</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>-0.06526940813505305</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.1430667925617903</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="n">
+        <v>0.2997042458412781</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.438783877294801</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2139884836359589</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.4990262400217455</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.2740267948819229</v>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.3210401734749968</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.4775830927642205</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05943314204139627</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.4855015975555613</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.08064177737568748</v>
+      </c>
+      <c r="G23" s="6" t="inlineStr"/>
+      <c r="H23" s="6" t="n">
+        <v>-0.2496487575044097</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.241778848803565</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.6245608266359171</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.542525847323747</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.7416131377470605</v>
+      </c>
+      <c r="G24" s="6" t="inlineStr"/>
+      <c r="H24" s="6" t="n">
+        <v>1.360231367776268</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1161,15 +1136,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
